--- a/biology/Zoologie/Corumbataia/Corumbataia.xlsx
+++ b/biology/Zoologie/Corumbataia/Corumbataia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Corumbataia est un genre de poissons d'eau douce de la famille des Loricariidae.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Corumbataia sont de petites tailles, variant entre 2,7 et 3,8 cm à l'âge adulte.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre sont endémiques du Brésil.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (20 mai 2023)[1]
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (20 mai 2023)
 Corumbataia acanthodela Thimotheo et al., 2020
 Corumbataia britskii Ferreira &amp; Ribeiro, 2007
 Corumbataia canoeiro (Roxo et al., 2017)
@@ -611,9 +629,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Corumbataia a été créé en 1997 par l'ichtyologiste brésilien Heraldo Antônio Britski (d)[1] (1934-) avec pour espèce type Corumbataia cuestae[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Corumbataia a été créé en 1997 par l'ichtyologiste brésilien Heraldo Antônio Britski (d) (1934-) avec pour espèce type Corumbataia cuestae.
 </t>
         </is>
       </c>
@@ -642,9 +662,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Corumbataia, fait référence au rio Corumbataí (d)[3] (État de São Paulo) dans lequel la première espèce a été découverte[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Corumbataia, fait référence au rio Corumbataí (d) (État de São Paulo) dans lequel la première espèce a été découverte.
 </t>
         </is>
       </c>
@@ -673,7 +695,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(pt) Heraldo A. Britski, « Descrição de um novo gênero de Hypoptopomatinae, com duas espécies novas (Siluriformes, Loricariidae) », Papéis Avulsos de Zoologia, Museum of Zoology of the University of São Paulo (d) et USP, vol. 40, no 15,‎ 12 décembre 1997, p. 231-255 (ISSN 0031-1049 et 1807-0205, OCLC 53958918, lire en ligne)</t>
         </is>
